--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>Itgb2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +534,731 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>33.102689</v>
+      </c>
+      <c r="H2">
+        <v>99.30806699999999</v>
+      </c>
+      <c r="I2">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="J2">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N2">
+        <v>190.360779</v>
+      </c>
+      <c r="O2">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P2">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q2">
+        <v>2100.484555011577</v>
+      </c>
+      <c r="R2">
+        <v>18904.36099510419</v>
+      </c>
+      <c r="S2">
+        <v>0.2404894920530268</v>
+      </c>
+      <c r="T2">
+        <v>0.2404894920530268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>5.37946995427858</v>
-      </c>
-      <c r="H2">
-        <v>5.37946995427858</v>
-      </c>
-      <c r="I2">
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>33.102689</v>
+      </c>
+      <c r="H3">
+        <v>99.30806699999999</v>
+      </c>
+      <c r="I3">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="J3">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.155386</v>
+      </c>
+      <c r="O3">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P3">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q3">
+        <v>12.74879447765133</v>
+      </c>
+      <c r="R3">
+        <v>114.739150298862</v>
+      </c>
+      <c r="S3">
+        <v>0.001459639920181134</v>
+      </c>
+      <c r="T3">
+        <v>0.001459639920181134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>33.102689</v>
+      </c>
+      <c r="H4">
+        <v>99.30806699999999</v>
+      </c>
+      <c r="I4">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="J4">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="M4">
+        <v>106.117587</v>
+      </c>
+      <c r="N4">
+        <v>318.352761</v>
+      </c>
+      <c r="O4">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P4">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q4">
+        <v>3512.777479891443</v>
+      </c>
+      <c r="R4">
+        <v>31614.99731902298</v>
+      </c>
+      <c r="S4">
+        <v>0.4021862811696555</v>
+      </c>
+      <c r="T4">
+        <v>0.4021862811696555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>33.102689</v>
+      </c>
+      <c r="H5">
+        <v>99.30806699999999</v>
+      </c>
+      <c r="I5">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="J5">
+        <v>0.6442155376576643</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.021141</v>
+      </c>
+      <c r="N5">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P5">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q5">
+        <v>0.6998239481490001</v>
+      </c>
+      <c r="R5">
+        <v>6.298415533341</v>
+      </c>
+      <c r="S5">
+        <v>8.012451480080948E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.012451480080948E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H6">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="J6">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N6">
+        <v>190.360779</v>
+      </c>
+      <c r="O6">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P6">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q6">
+        <v>109.1170617009503</v>
+      </c>
+      <c r="R6">
+        <v>982.0535553085529</v>
+      </c>
+      <c r="S6">
+        <v>0.01249307293413338</v>
+      </c>
+      <c r="T6">
+        <v>0.01249307293413338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H7">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="J7">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.155386</v>
+      </c>
+      <c r="O7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q7">
+        <v>0.6622809914557777</v>
+      </c>
+      <c r="R7">
+        <v>5.960528923101999</v>
+      </c>
+      <c r="S7">
+        <v>7.582613204727761E-05</v>
+      </c>
+      <c r="T7">
+        <v>7.582613204727761E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H8">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="J8">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>87.55870721002481</v>
-      </c>
-      <c r="N2">
-        <v>87.55870721002481</v>
-      </c>
-      <c r="O2">
+      <c r="M8">
+        <v>106.117587</v>
+      </c>
+      <c r="N8">
+        <v>318.352761</v>
+      </c>
+      <c r="O8">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P8">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q8">
+        <v>182.483587465803</v>
+      </c>
+      <c r="R8">
+        <v>1642.352287192227</v>
+      </c>
+      <c r="S8">
+        <v>0.02089298164700058</v>
+      </c>
+      <c r="T8">
+        <v>0.02089298164700058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H9">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="J9">
+        <v>0.03346604306305637</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.021141</v>
+      </c>
+      <c r="N9">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P9">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q9">
+        <v>0.036354817629</v>
+      </c>
+      <c r="R9">
+        <v>0.327193358661</v>
+      </c>
+      <c r="S9">
+        <v>4.162349875136524E-06</v>
+      </c>
+      <c r="T9">
+        <v>4.162349875136524E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="G10">
+        <v>16.56216866666666</v>
+      </c>
+      <c r="H10">
+        <v>49.68650599999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="J10">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N10">
+        <v>190.360779</v>
+      </c>
+      <c r="O10">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P10">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q10">
+        <v>1050.929109772019</v>
+      </c>
+      <c r="R10">
+        <v>9458.361987948174</v>
+      </c>
+      <c r="S10">
+        <v>0.120323383092631</v>
+      </c>
+      <c r="T10">
+        <v>0.120323383092631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>471.0194346718037</v>
-      </c>
-      <c r="R2">
-        <v>471.0194346718037</v>
-      </c>
-      <c r="S2">
+      <c r="G11">
+        <v>16.56216866666666</v>
+      </c>
+      <c r="H11">
+        <v>49.68650599999999</v>
+      </c>
+      <c r="I11">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="J11">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.155386</v>
+      </c>
+      <c r="O11">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P11">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q11">
+        <v>6.378565935701777</v>
+      </c>
+      <c r="R11">
+        <v>57.40709342131599</v>
+      </c>
+      <c r="S11">
+        <v>0.0007302972441495556</v>
+      </c>
+      <c r="T11">
+        <v>0.0007302972441495556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="G12">
+        <v>16.56216866666666</v>
+      </c>
+      <c r="H12">
+        <v>49.68650599999999</v>
+      </c>
+      <c r="I12">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="J12">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
         <v>1</v>
+      </c>
+      <c r="M12">
+        <v>106.117587</v>
+      </c>
+      <c r="N12">
+        <v>318.352761</v>
+      </c>
+      <c r="O12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q12">
+        <v>1757.537374393674</v>
+      </c>
+      <c r="R12">
+        <v>15817.83636954306</v>
+      </c>
+      <c r="S12">
+        <v>0.2012246504853807</v>
+      </c>
+      <c r="T12">
+        <v>0.2012246504853807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.56216866666666</v>
+      </c>
+      <c r="H13">
+        <v>49.68650599999999</v>
+      </c>
+      <c r="I13">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="J13">
+        <v>0.3223184192792793</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.021141</v>
+      </c>
+      <c r="N13">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P13">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q13">
+        <v>0.350140807782</v>
+      </c>
+      <c r="R13">
+        <v>3.151267270038</v>
+      </c>
+      <c r="S13">
+        <v>4.008845711796514E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.008845711796514E-05</v>
       </c>
     </row>
   </sheetData>
